--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Dip2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.7554389359619</v>
+        <v>30.92586266666667</v>
       </c>
       <c r="H2">
-        <v>19.7554389359619</v>
+        <v>92.77758800000001</v>
       </c>
       <c r="I2">
-        <v>0.03732894262679416</v>
+        <v>0.05444076693605816</v>
       </c>
       <c r="J2">
-        <v>0.03732894262679416</v>
+        <v>0.05577557035774222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.873951250614899</v>
+        <v>9.272955666666666</v>
       </c>
       <c r="N2">
-        <v>8.873951250614899</v>
+        <v>27.818867</v>
       </c>
       <c r="O2">
-        <v>0.295166511810696</v>
+        <v>0.2914561381297694</v>
       </c>
       <c r="P2">
-        <v>0.295166511810696</v>
+        <v>0.3122478085164579</v>
       </c>
       <c r="Q2">
-        <v>175.3088020522254</v>
+        <v>286.7741534614218</v>
       </c>
       <c r="R2">
-        <v>175.3088020522254</v>
+        <v>2580.967381152796</v>
       </c>
       <c r="S2">
-        <v>0.01101825378473243</v>
+        <v>0.01586709568800635</v>
       </c>
       <c r="T2">
-        <v>0.01101825378473243</v>
+        <v>0.01741579961296052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.7554389359619</v>
+        <v>30.92586266666667</v>
       </c>
       <c r="H3">
-        <v>19.7554389359619</v>
+        <v>92.77758800000001</v>
       </c>
       <c r="I3">
-        <v>0.03732894262679416</v>
+        <v>0.05444076693605816</v>
       </c>
       <c r="J3">
-        <v>0.03732894262679416</v>
+        <v>0.05577557035774222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.44555047504655</v>
+        <v>10.26188433333333</v>
       </c>
       <c r="N3">
-        <v>9.44555047504655</v>
+        <v>30.785653</v>
       </c>
       <c r="O3">
-        <v>0.3141791189869523</v>
+        <v>0.32253892774221</v>
       </c>
       <c r="P3">
-        <v>0.3141791189869523</v>
+        <v>0.3455479579020281</v>
       </c>
       <c r="Q3">
-        <v>186.6009956263281</v>
+        <v>317.357625593885</v>
       </c>
       <c r="R3">
-        <v>186.6009956263281</v>
+        <v>2856.218630344964</v>
       </c>
       <c r="S3">
-        <v>0.01172797430720068</v>
+        <v>0.01755926659301976</v>
       </c>
       <c r="T3">
-        <v>0.01172797430720068</v>
+        <v>0.01927313443793872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.7554389359619</v>
+        <v>30.92586266666667</v>
       </c>
       <c r="H4">
-        <v>19.7554389359619</v>
+        <v>92.77758800000001</v>
       </c>
       <c r="I4">
-        <v>0.03732894262679416</v>
+        <v>0.05444076693605816</v>
       </c>
       <c r="J4">
-        <v>0.03732894262679416</v>
+        <v>0.05577557035774222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.64237779332978</v>
+        <v>2.681345666666667</v>
       </c>
       <c r="N4">
-        <v>2.64237779332978</v>
+        <v>8.044036999999999</v>
       </c>
       <c r="O4">
-        <v>0.08789111119910098</v>
+        <v>0.08427675933002506</v>
       </c>
       <c r="P4">
-        <v>0.08789111119910098</v>
+        <v>0.09028882897622331</v>
       </c>
       <c r="Q4">
-        <v>52.20133314186823</v>
+        <v>82.92292784919512</v>
       </c>
       <c r="R4">
-        <v>52.20133314186823</v>
+        <v>746.306350642756</v>
       </c>
       <c r="S4">
-        <v>0.003280882247356426</v>
+        <v>0.004588091412812158</v>
       </c>
       <c r="T4">
-        <v>0.003280882247356426</v>
+        <v>0.005035910933081498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.7554389359619</v>
+        <v>30.92586266666667</v>
       </c>
       <c r="H5">
-        <v>19.7554389359619</v>
+        <v>92.77758800000001</v>
       </c>
       <c r="I5">
-        <v>0.03732894262679416</v>
+        <v>0.05444076693605816</v>
       </c>
       <c r="J5">
-        <v>0.03732894262679416</v>
+        <v>0.05577557035774222</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.91086927811467</v>
+        <v>3.244175333333333</v>
       </c>
       <c r="N5">
-        <v>2.91086927811467</v>
+        <v>9.732526</v>
       </c>
       <c r="O5">
-        <v>0.09682170961875526</v>
+        <v>0.1019669292141758</v>
       </c>
       <c r="P5">
-        <v>0.09682170961875526</v>
+        <v>0.1092409663854911</v>
       </c>
       <c r="Q5">
-        <v>57.50550027436186</v>
+        <v>100.3289208252542</v>
       </c>
       <c r="R5">
-        <v>57.50550027436186</v>
+        <v>902.9602874272881</v>
       </c>
       <c r="S5">
-        <v>0.003614252043386639</v>
+        <v>0.005551157828534487</v>
       </c>
       <c r="T5">
-        <v>0.003614252043386639</v>
+        <v>0.006092977206581713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.7554389359619</v>
+        <v>30.92586266666667</v>
       </c>
       <c r="H6">
-        <v>19.7554389359619</v>
+        <v>92.77758800000001</v>
       </c>
       <c r="I6">
-        <v>0.03732894262679416</v>
+        <v>0.05444076693605816</v>
       </c>
       <c r="J6">
-        <v>0.03732894262679416</v>
+        <v>0.05577557035774222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.19147222911328</v>
+        <v>6.355594999999999</v>
       </c>
       <c r="N6">
-        <v>6.19147222911328</v>
+        <v>12.71119</v>
       </c>
       <c r="O6">
-        <v>0.2059415483844954</v>
+        <v>0.1997612455838196</v>
       </c>
       <c r="P6">
-        <v>0.2059415483844954</v>
+        <v>0.1426744382197993</v>
       </c>
       <c r="Q6">
-        <v>122.3152515459513</v>
+        <v>196.5522581349533</v>
       </c>
       <c r="R6">
-        <v>122.3152515459513</v>
+        <v>1179.31354880972</v>
       </c>
       <c r="S6">
-        <v>0.007687580244117982</v>
+        <v>0.0108751554136854</v>
       </c>
       <c r="T6">
-        <v>0.007687580244117982</v>
+        <v>0.007957748167179764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>469.390982452366</v>
+        <v>495.4746196666667</v>
       </c>
       <c r="H7">
-        <v>469.390982452366</v>
+        <v>1486.423859</v>
       </c>
       <c r="I7">
-        <v>0.8869389898294238</v>
+        <v>0.8722155492554426</v>
       </c>
       <c r="J7">
-        <v>0.8869389898294238</v>
+        <v>0.8936009257869605</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.873951250614899</v>
+        <v>9.272955666666666</v>
       </c>
       <c r="N7">
-        <v>8.873951250614899</v>
+        <v>27.818867</v>
       </c>
       <c r="O7">
-        <v>0.295166511810696</v>
+        <v>0.2914561381297694</v>
       </c>
       <c r="P7">
-        <v>0.295166511810696</v>
+        <v>0.3122478085164579</v>
       </c>
       <c r="Q7">
-        <v>4165.35269576053</v>
+        <v>4594.514182127528</v>
       </c>
       <c r="R7">
-        <v>4165.35269576053</v>
+        <v>41350.62763914775</v>
       </c>
       <c r="S7">
-        <v>0.2617946878168534</v>
+        <v>0.254212575602727</v>
       </c>
       <c r="T7">
-        <v>0.2617946878168534</v>
+        <v>0.2790249307652564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>469.390982452366</v>
+        <v>495.4746196666667</v>
       </c>
       <c r="H8">
-        <v>469.390982452366</v>
+        <v>1486.423859</v>
       </c>
       <c r="I8">
-        <v>0.8869389898294238</v>
+        <v>0.8722155492554426</v>
       </c>
       <c r="J8">
-        <v>0.8869389898294238</v>
+        <v>0.8936009257869605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.44555047504655</v>
+        <v>10.26188433333333</v>
       </c>
       <c r="N8">
-        <v>9.44555047504655</v>
+        <v>30.785653</v>
       </c>
       <c r="O8">
-        <v>0.3141791189869523</v>
+        <v>0.32253892774221</v>
       </c>
       <c r="P8">
-        <v>0.3141791189869523</v>
+        <v>0.3455479579020281</v>
       </c>
       <c r="Q8">
-        <v>4433.656217285513</v>
+        <v>5084.503237121659</v>
       </c>
       <c r="R8">
-        <v>4433.656217285513</v>
+        <v>45760.52913409493</v>
       </c>
       <c r="S8">
-        <v>0.2786577104197858</v>
+        <v>0.2813234680169333</v>
       </c>
       <c r="T8">
-        <v>0.2786577104197858</v>
+        <v>0.308781975085046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>469.390982452366</v>
+        <v>495.4746196666667</v>
       </c>
       <c r="H9">
-        <v>469.390982452366</v>
+        <v>1486.423859</v>
       </c>
       <c r="I9">
-        <v>0.8869389898294238</v>
+        <v>0.8722155492554426</v>
       </c>
       <c r="J9">
-        <v>0.8869389898294238</v>
+        <v>0.8936009257869605</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64237779332978</v>
+        <v>2.681345666666667</v>
       </c>
       <c r="N9">
-        <v>2.64237779332978</v>
+        <v>8.044036999999999</v>
       </c>
       <c r="O9">
-        <v>0.08789111119910098</v>
+        <v>0.08427675933002506</v>
       </c>
       <c r="P9">
-        <v>0.08789111119910098</v>
+        <v>0.09028882897622331</v>
       </c>
       <c r="Q9">
-        <v>1240.30830842138</v>
+        <v>1328.538724386531</v>
       </c>
       <c r="R9">
-        <v>1240.30830842138</v>
+        <v>11956.84851947878</v>
       </c>
       <c r="S9">
-        <v>0.07795405338191617</v>
+        <v>0.07350749992850655</v>
       </c>
       <c r="T9">
-        <v>0.07795405338191617</v>
+        <v>0.0806821811613737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>469.390982452366</v>
+        <v>495.4746196666667</v>
       </c>
       <c r="H10">
-        <v>469.390982452366</v>
+        <v>1486.423859</v>
       </c>
       <c r="I10">
-        <v>0.8869389898294238</v>
+        <v>0.8722155492554426</v>
       </c>
       <c r="J10">
-        <v>0.8869389898294238</v>
+        <v>0.8936009257869605</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.91086927811467</v>
+        <v>3.244175333333333</v>
       </c>
       <c r="N10">
-        <v>2.91086927811467</v>
+        <v>9.732526</v>
       </c>
       <c r="O10">
-        <v>0.09682170961875526</v>
+        <v>0.1019669292141758</v>
       </c>
       <c r="P10">
-        <v>0.09682170961875526</v>
+        <v>0.1092409663854911</v>
       </c>
       <c r="Q10">
-        <v>1366.335790244654</v>
+        <v>1607.406539415315</v>
       </c>
       <c r="R10">
-        <v>1366.335790244654</v>
+        <v>14466.65885473783</v>
       </c>
       <c r="S10">
-        <v>0.0858749493228166</v>
+        <v>0.08893714117043322</v>
       </c>
       <c r="T10">
-        <v>0.0858749493228166</v>
+        <v>0.09761782869593709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>469.390982452366</v>
+        <v>495.4746196666667</v>
       </c>
       <c r="H11">
-        <v>469.390982452366</v>
+        <v>1486.423859</v>
       </c>
       <c r="I11">
-        <v>0.8869389898294238</v>
+        <v>0.8722155492554426</v>
       </c>
       <c r="J11">
-        <v>0.8869389898294238</v>
+        <v>0.8936009257869605</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.19147222911328</v>
+        <v>6.355594999999999</v>
       </c>
       <c r="N11">
-        <v>6.19147222911328</v>
+        <v>12.71119</v>
       </c>
       <c r="O11">
-        <v>0.2059415483844954</v>
+        <v>0.1997612455838196</v>
       </c>
       <c r="P11">
-        <v>0.2059415483844954</v>
+        <v>0.1426744382197993</v>
       </c>
       <c r="Q11">
-        <v>2906.221232450023</v>
+        <v>3149.036015380368</v>
       </c>
       <c r="R11">
-        <v>2906.221232450023</v>
+        <v>18894.21609228221</v>
       </c>
       <c r="S11">
-        <v>0.1826575888880517</v>
+        <v>0.1742348645368426</v>
       </c>
       <c r="T11">
-        <v>0.1826575888880517</v>
+        <v>0.1274940100793472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>40.0793628368524</v>
+        <v>0.4893776666666667</v>
       </c>
       <c r="H12">
-        <v>40.0793628368524</v>
+        <v>1.468133</v>
       </c>
       <c r="I12">
-        <v>0.07573206754378209</v>
+        <v>0.0008614826943349278</v>
       </c>
       <c r="J12">
-        <v>0.07573206754378209</v>
+        <v>0.0008826049178603689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.873951250614899</v>
+        <v>9.272955666666666</v>
       </c>
       <c r="N12">
-        <v>8.873951250614899</v>
+        <v>27.818867</v>
       </c>
       <c r="O12">
-        <v>0.295166511810696</v>
+        <v>0.2914561381297694</v>
       </c>
       <c r="P12">
-        <v>0.295166511810696</v>
+        <v>0.3122478085164579</v>
       </c>
       <c r="Q12">
-        <v>355.6623119699346</v>
+        <v>4.537977407256777</v>
       </c>
       <c r="R12">
-        <v>355.6623119699346</v>
+        <v>40.841796665311</v>
       </c>
       <c r="S12">
-        <v>0.02235357020911019</v>
+        <v>0.0002510844191564866</v>
       </c>
       <c r="T12">
-        <v>0.02235357020911019</v>
+        <v>0.0002755914513877486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>40.0793628368524</v>
+        <v>0.4893776666666667</v>
       </c>
       <c r="H13">
-        <v>40.0793628368524</v>
+        <v>1.468133</v>
       </c>
       <c r="I13">
-        <v>0.07573206754378209</v>
+        <v>0.0008614826943349278</v>
       </c>
       <c r="J13">
-        <v>0.07573206754378209</v>
+        <v>0.0008826049178603689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.44555047504655</v>
+        <v>10.26188433333333</v>
       </c>
       <c r="N13">
-        <v>9.44555047504655</v>
+        <v>30.785653</v>
       </c>
       <c r="O13">
-        <v>0.3141791189869523</v>
+        <v>0.32253892774221</v>
       </c>
       <c r="P13">
-        <v>0.3141791189869523</v>
+        <v>0.3455479579020281</v>
       </c>
       <c r="Q13">
-        <v>378.5716446831942</v>
+        <v>5.021937010649889</v>
       </c>
       <c r="R13">
-        <v>378.5716446831942</v>
+        <v>45.197433095849</v>
       </c>
       <c r="S13">
-        <v>0.02379343425996583</v>
+        <v>0.0002778617044992577</v>
       </c>
       <c r="T13">
-        <v>0.02379343425996583</v>
+        <v>0.0003049823270009377</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>40.0793628368524</v>
+        <v>0.4893776666666667</v>
       </c>
       <c r="H14">
-        <v>40.0793628368524</v>
+        <v>1.468133</v>
       </c>
       <c r="I14">
-        <v>0.07573206754378209</v>
+        <v>0.0008614826943349278</v>
       </c>
       <c r="J14">
-        <v>0.07573206754378209</v>
+        <v>0.0008826049178603689</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.64237779332978</v>
+        <v>2.681345666666667</v>
       </c>
       <c r="N14">
-        <v>2.64237779332978</v>
+        <v>8.044036999999999</v>
       </c>
       <c r="O14">
-        <v>0.08789111119910098</v>
+        <v>0.08427675933002506</v>
       </c>
       <c r="P14">
-        <v>0.08789111119910098</v>
+        <v>0.09028882897622331</v>
       </c>
       <c r="Q14">
-        <v>105.9048183309056</v>
+        <v>1.312190685880111</v>
       </c>
       <c r="R14">
-        <v>105.9048183309056</v>
+        <v>11.809716172921</v>
       </c>
       <c r="S14">
-        <v>0.006656175569828377</v>
+        <v>7.260296969744625E-05</v>
       </c>
       <c r="T14">
-        <v>0.006656175569828377</v>
+        <v>7.968936448226848E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>40.0793628368524</v>
+        <v>0.4893776666666667</v>
       </c>
       <c r="H15">
-        <v>40.0793628368524</v>
+        <v>1.468133</v>
       </c>
       <c r="I15">
-        <v>0.07573206754378209</v>
+        <v>0.0008614826943349278</v>
       </c>
       <c r="J15">
-        <v>0.07573206754378209</v>
+        <v>0.0008826049178603689</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.91086927811467</v>
+        <v>3.244175333333333</v>
       </c>
       <c r="N15">
-        <v>2.91086927811467</v>
+        <v>9.732526</v>
       </c>
       <c r="O15">
-        <v>0.09682170961875526</v>
+        <v>0.1019669292141758</v>
       </c>
       <c r="P15">
-        <v>0.09682170961875526</v>
+        <v>0.1092409663854911</v>
       </c>
       <c r="Q15">
-        <v>116.6657859682045</v>
+        <v>1.587626954884222</v>
       </c>
       <c r="R15">
-        <v>116.6657859682045</v>
+        <v>14.288642593958</v>
       </c>
       <c r="S15">
-        <v>0.007332508252552029</v>
+        <v>8.784274491248706E-05</v>
       </c>
       <c r="T15">
-        <v>0.007332508252552029</v>
+        <v>9.641661416365371E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4893776666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.468133</v>
+      </c>
+      <c r="I16">
+        <v>0.0008614826943349278</v>
+      </c>
+      <c r="J16">
+        <v>0.0008826049178603689</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.355594999999999</v>
+      </c>
+      <c r="N16">
+        <v>12.71119</v>
+      </c>
+      <c r="O16">
+        <v>0.1997612455838196</v>
+      </c>
+      <c r="P16">
+        <v>0.1426744382197993</v>
+      </c>
+      <c r="Q16">
+        <v>3.110286251378333</v>
+      </c>
+      <c r="R16">
+        <v>18.66171750827</v>
+      </c>
+      <c r="S16">
+        <v>0.0001720908560692501</v>
+      </c>
+      <c r="T16">
+        <v>0.0001259251608257603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.390342</v>
+      </c>
+      <c r="H17">
+        <v>1.171026</v>
+      </c>
+      <c r="I17">
+        <v>0.0006871438988267773</v>
+      </c>
+      <c r="J17">
+        <v>0.0007039916046722989</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.272955666666666</v>
+      </c>
+      <c r="N17">
+        <v>27.818867</v>
+      </c>
+      <c r="O17">
+        <v>0.2914561381297694</v>
+      </c>
+      <c r="P17">
+        <v>0.3122478085164579</v>
+      </c>
+      <c r="Q17">
+        <v>3.619624060837999</v>
+      </c>
+      <c r="R17">
+        <v>32.576616547542</v>
+      </c>
+      <c r="S17">
+        <v>0.0002002723070914855</v>
+      </c>
+      <c r="T17">
+        <v>0.0002198198357729099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.390342</v>
+      </c>
+      <c r="H18">
+        <v>1.171026</v>
+      </c>
+      <c r="I18">
+        <v>0.0006871438988267773</v>
+      </c>
+      <c r="J18">
+        <v>0.0007039916046722989</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.26188433333333</v>
+      </c>
+      <c r="N18">
+        <v>30.785653</v>
+      </c>
+      <c r="O18">
+        <v>0.32253892774221</v>
+      </c>
+      <c r="P18">
+        <v>0.3455479579020281</v>
+      </c>
+      <c r="Q18">
+        <v>4.005644454442</v>
+      </c>
+      <c r="R18">
+        <v>36.050800089978</v>
+      </c>
+      <c r="S18">
+        <v>0.0002216306563321904</v>
+      </c>
+      <c r="T18">
+        <v>0.0002432628613746848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.390342</v>
+      </c>
+      <c r="H19">
+        <v>1.171026</v>
+      </c>
+      <c r="I19">
+        <v>0.0006871438988267773</v>
+      </c>
+      <c r="J19">
+        <v>0.0007039916046722989</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.681345666666667</v>
+      </c>
+      <c r="N19">
+        <v>8.044036999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.08427675933002506</v>
+      </c>
+      <c r="P19">
+        <v>0.09028882897622331</v>
+      </c>
+      <c r="Q19">
+        <v>1.046641830218</v>
+      </c>
+      <c r="R19">
+        <v>9.419776471961999</v>
+      </c>
+      <c r="S19">
+        <v>5.79102609865194E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.356257759495422E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.390342</v>
+      </c>
+      <c r="H20">
+        <v>1.171026</v>
+      </c>
+      <c r="I20">
+        <v>0.0006871438988267773</v>
+      </c>
+      <c r="J20">
+        <v>0.0007039916046722989</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.244175333333333</v>
+      </c>
+      <c r="N20">
+        <v>9.732526</v>
+      </c>
+      <c r="O20">
+        <v>0.1019669292141758</v>
+      </c>
+      <c r="P20">
+        <v>0.1092409663854911</v>
+      </c>
+      <c r="Q20">
+        <v>1.266337887964</v>
+      </c>
+      <c r="R20">
+        <v>11.397040991676</v>
+      </c>
+      <c r="S20">
+        <v>7.006595329162281E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.690472322167456E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.390342</v>
+      </c>
+      <c r="H21">
+        <v>1.171026</v>
+      </c>
+      <c r="I21">
+        <v>0.0006871438988267773</v>
+      </c>
+      <c r="J21">
+        <v>0.0007039916046722989</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.355594999999999</v>
+      </c>
+      <c r="N21">
+        <v>12.71119</v>
+      </c>
+      <c r="O21">
+        <v>0.1997612455838196</v>
+      </c>
+      <c r="P21">
+        <v>0.1426744382197993</v>
+      </c>
+      <c r="Q21">
+        <v>2.480855663489999</v>
+      </c>
+      <c r="R21">
+        <v>14.88513398094</v>
+      </c>
+      <c r="S21">
+        <v>0.0001372647211249592</v>
+      </c>
+      <c r="T21">
+        <v>0.0001004416067080753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>40.7842175</v>
+      </c>
+      <c r="H22">
+        <v>81.56843499999999</v>
+      </c>
+      <c r="I22">
+        <v>0.07179505721533752</v>
+      </c>
+      <c r="J22">
+        <v>0.0490369073327647</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.272955666666666</v>
+      </c>
+      <c r="N22">
+        <v>27.818867</v>
+      </c>
+      <c r="O22">
+        <v>0.2914561381297694</v>
+      </c>
+      <c r="P22">
+        <v>0.3122478085164579</v>
+      </c>
+      <c r="Q22">
+        <v>378.1902407771908</v>
+      </c>
+      <c r="R22">
+        <v>2269.141444663145</v>
+      </c>
+      <c r="S22">
+        <v>0.02092511011278811</v>
+      </c>
+      <c r="T22">
+        <v>0.01531166685108041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>40.7842175</v>
+      </c>
+      <c r="H23">
+        <v>81.56843499999999</v>
+      </c>
+      <c r="I23">
+        <v>0.07179505721533752</v>
+      </c>
+      <c r="J23">
+        <v>0.0490369073327647</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.26188433333333</v>
+      </c>
+      <c r="N23">
+        <v>30.785653</v>
+      </c>
+      <c r="O23">
+        <v>0.32253892774221</v>
+      </c>
+      <c r="P23">
+        <v>0.3455479579020281</v>
+      </c>
+      <c r="Q23">
+        <v>418.5229226105092</v>
+      </c>
+      <c r="R23">
+        <v>2511.137535663055</v>
+      </c>
+      <c r="S23">
+        <v>0.02315670077142559</v>
+      </c>
+      <c r="T23">
+        <v>0.01694460319066783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>40.0793628368524</v>
-      </c>
-      <c r="H16">
-        <v>40.0793628368524</v>
-      </c>
-      <c r="I16">
-        <v>0.07573206754378209</v>
-      </c>
-      <c r="J16">
-        <v>0.07573206754378209</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.19147222911328</v>
-      </c>
-      <c r="N16">
-        <v>6.19147222911328</v>
-      </c>
-      <c r="O16">
-        <v>0.2059415483844954</v>
-      </c>
-      <c r="P16">
-        <v>0.2059415483844954</v>
-      </c>
-      <c r="Q16">
-        <v>248.1502619649265</v>
-      </c>
-      <c r="R16">
-        <v>248.1502619649265</v>
-      </c>
-      <c r="S16">
-        <v>0.01559637925232567</v>
-      </c>
-      <c r="T16">
-        <v>0.01559637925232567</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>40.7842175</v>
+      </c>
+      <c r="H24">
+        <v>81.56843499999999</v>
+      </c>
+      <c r="I24">
+        <v>0.07179505721533752</v>
+      </c>
+      <c r="J24">
+        <v>0.0490369073327647</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.681345666666667</v>
+      </c>
+      <c r="N24">
+        <v>8.044036999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.08427675933002506</v>
+      </c>
+      <c r="P24">
+        <v>0.09028882897622331</v>
+      </c>
+      <c r="Q24">
+        <v>109.3565848620158</v>
+      </c>
+      <c r="R24">
+        <v>656.1395091720949</v>
+      </c>
+      <c r="S24">
+        <v>0.006050654758022379</v>
+      </c>
+      <c r="T24">
+        <v>0.004427484939690903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>40.7842175</v>
+      </c>
+      <c r="H25">
+        <v>81.56843499999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07179505721533752</v>
+      </c>
+      <c r="J25">
+        <v>0.0490369073327647</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.244175333333333</v>
+      </c>
+      <c r="N25">
+        <v>9.732526</v>
+      </c>
+      <c r="O25">
+        <v>0.1019669292141758</v>
+      </c>
+      <c r="P25">
+        <v>0.1092409663854911</v>
+      </c>
+      <c r="Q25">
+        <v>132.3111524028016</v>
+      </c>
+      <c r="R25">
+        <v>793.8669144168099</v>
+      </c>
+      <c r="S25">
+        <v>0.007320721517004025</v>
+      </c>
+      <c r="T25">
+        <v>0.005356839145586992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>40.7842175</v>
+      </c>
+      <c r="H26">
+        <v>81.56843499999999</v>
+      </c>
+      <c r="I26">
+        <v>0.07179505721533752</v>
+      </c>
+      <c r="J26">
+        <v>0.0490369073327647</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.355594999999999</v>
+      </c>
+      <c r="N26">
+        <v>12.71119</v>
+      </c>
+      <c r="O26">
+        <v>0.1997612455838196</v>
+      </c>
+      <c r="P26">
+        <v>0.1426744382197993</v>
+      </c>
+      <c r="Q26">
+        <v>259.2079688219125</v>
+      </c>
+      <c r="R26">
+        <v>1036.83187528765</v>
+      </c>
+      <c r="S26">
+        <v>0.01434187005609742</v>
+      </c>
+      <c r="T26">
+        <v>0.006996313205738562</v>
       </c>
     </row>
   </sheetData>
